--- a/Главы Омелы.xlsx
+++ b/Главы Омелы.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Глава</t>
   </si>
@@ -174,6 +174,15 @@
   </si>
   <si>
     <t>Космическая стация А87</t>
+  </si>
+  <si>
+    <t>3114-245</t>
+  </si>
+  <si>
+    <t>Мегу, Сира, Эван, Барри, Люк, Зак, Джун, Широ</t>
+  </si>
+  <si>
+    <t>Экзамен в захватчики, бой с Эваном</t>
   </si>
 </sst>
 </file>
@@ -551,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,6 +811,23 @@
       </c>
       <c r="E14" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Главы Омелы.xlsx
+++ b/Главы Омелы.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>Глава</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>Экзамен в захватчики, бой с Эваном</t>
+  </si>
+  <si>
+    <t>3114-246</t>
+  </si>
+  <si>
+    <t>Мегу, Зак, Эван</t>
+  </si>
+  <si>
+    <t>Эван зовет Мегу поужинать, вместо этого девушка, после разговора с Заком, решается открыть флешку Мэтта</t>
   </si>
 </sst>
 </file>
@@ -560,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,6 +837,23 @@
       </c>
       <c r="E15" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Главы Омелы.xlsx
+++ b/Главы Омелы.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="1125" yWindow="885" windowWidth="22995" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -141,11 +141,10 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ключ</t>
     </r>
@@ -157,11 +156,10 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
-        <scheme val="minor"/>
       </rPr>
       <t>флешку</t>
     </r>
@@ -198,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,28 +207,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="61"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -245,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -267,6 +293,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +640,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -619,7 +657,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -636,7 +674,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -653,7 +691,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -670,7 +708,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -687,7 +725,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -704,7 +742,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -721,7 +759,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -738,7 +776,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -755,7 +793,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -772,7 +810,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -789,7 +827,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -806,7 +844,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -823,7 +861,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -840,7 +878,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -857,8 +895,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -870,6 +909,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -882,6 +922,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>